--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.670085303259497</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N2">
-        <v>0.670085303259497</v>
+        <v>2.747794</v>
       </c>
       <c r="O2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q2">
-        <v>19.14803072828797</v>
+        <v>111.97536703297</v>
       </c>
       <c r="R2">
-        <v>19.14803072828797</v>
+        <v>1007.77830329673</v>
       </c>
       <c r="S2">
-        <v>0.002152959987693352</v>
+        <v>0.007241333513152736</v>
       </c>
       <c r="T2">
-        <v>0.002152959987693352</v>
+        <v>0.007241333513152733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.416639528447</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N3">
-        <v>10.416639528447</v>
+        <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q3">
-        <v>297.6608094610907</v>
+        <v>1292.012202814195</v>
       </c>
       <c r="R3">
-        <v>297.6608094610907</v>
+        <v>11628.10982532776</v>
       </c>
       <c r="S3">
-        <v>0.0334682882938658</v>
+        <v>0.08355311986506794</v>
       </c>
       <c r="T3">
-        <v>0.0334682882938658</v>
+        <v>0.08355311986506792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.4297498389217</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N4">
-        <v>12.4297498389217</v>
+        <v>3.662902</v>
       </c>
       <c r="O4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q4">
-        <v>355.1864676077448</v>
+        <v>149.26693771651</v>
       </c>
       <c r="R4">
-        <v>355.1864676077448</v>
+        <v>1343.40243944859</v>
       </c>
       <c r="S4">
-        <v>0.03993633934375807</v>
+        <v>0.00965294159896782</v>
       </c>
       <c r="T4">
-        <v>0.03993633934375807</v>
+        <v>0.009652941598967816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>131.336294436091</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>131.336294436091</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.670085303259497</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N5">
-        <v>0.670085303259497</v>
+        <v>37.345108</v>
       </c>
       <c r="O5">
-        <v>0.02849429230548853</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P5">
-        <v>0.02849429230548853</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q5">
-        <v>88.00652068618663</v>
+        <v>1521.85068283354</v>
       </c>
       <c r="R5">
-        <v>88.00652068618663</v>
+        <v>13696.65614550186</v>
       </c>
       <c r="S5">
-        <v>0.009895248257229428</v>
+        <v>0.09841654145569441</v>
       </c>
       <c r="T5">
-        <v>0.009895248257229428</v>
+        <v>0.09841654145569438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.416639528447</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N6">
-        <v>10.416639528447</v>
+        <v>2.747794</v>
       </c>
       <c r="O6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q6">
-        <v>1368.082836142739</v>
+        <v>121.4019002796989</v>
       </c>
       <c r="R6">
-        <v>1368.082836142739</v>
+        <v>1092.61710251729</v>
       </c>
       <c r="S6">
-        <v>0.1538240484288542</v>
+        <v>0.007850937865619717</v>
       </c>
       <c r="T6">
-        <v>0.1538240484288542</v>
+        <v>0.007850937865619715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4297498389217</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N7">
-        <v>12.4297498389217</v>
+        <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q7">
-        <v>1632.477284611575</v>
+        <v>1400.778945962457</v>
       </c>
       <c r="R7">
-        <v>1632.477284611575</v>
+        <v>12607.01051366211</v>
       </c>
       <c r="S7">
-        <v>0.1835519445555673</v>
+        <v>0.09058695492313103</v>
       </c>
       <c r="T7">
-        <v>0.1835519445555673</v>
+        <v>0.090586954923131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>178.507776328152</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>178.507776328152</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.670085303259497</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N8">
-        <v>0.670085303259497</v>
+        <v>3.662902</v>
       </c>
       <c r="O8">
-        <v>0.02849429230548853</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P8">
-        <v>0.02849429230548853</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q8">
-        <v>119.6154374350282</v>
+        <v>161.8328241994522</v>
       </c>
       <c r="R8">
-        <v>119.6154374350282</v>
+        <v>1456.49541779507</v>
       </c>
       <c r="S8">
-        <v>0.01344928125311603</v>
+        <v>0.01046556474388335</v>
       </c>
       <c r="T8">
-        <v>0.01344928125311603</v>
+        <v>0.01046556474388334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>178.507776328152</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>178.507776328152</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.416639528447</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N9">
-        <v>10.416639528447</v>
+        <v>37.345108</v>
       </c>
       <c r="O9">
-        <v>0.4429507260055973</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P9">
-        <v>0.4429507260055973</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q9">
-        <v>1859.451159035004</v>
+        <v>1649.966146425309</v>
       </c>
       <c r="R9">
-        <v>1859.451159035004</v>
+        <v>14849.69531782778</v>
       </c>
       <c r="S9">
-        <v>0.2090723584727779</v>
+        <v>0.1067016386573585</v>
       </c>
       <c r="T9">
-        <v>0.2090723584727779</v>
+        <v>0.1067016386573585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H10">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4297498389217</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N10">
-        <v>12.4297498389217</v>
+        <v>2.747794</v>
       </c>
       <c r="O10">
-        <v>0.5285549816889141</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P10">
-        <v>0.5285549816889141</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q10">
-        <v>2218.807004061118</v>
+        <v>293.1799298571142</v>
       </c>
       <c r="R10">
-        <v>2218.807004061118</v>
+        <v>2638.619368714028</v>
       </c>
       <c r="S10">
-        <v>0.2494774929047996</v>
+        <v>0.01895964896308837</v>
       </c>
       <c r="T10">
-        <v>0.2494774929047996</v>
+        <v>0.01895964896308837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.7755534428927</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H11">
-        <v>39.7755534428927</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I11">
-        <v>0.1051720385023381</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J11">
-        <v>0.1051720385023381</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.670085303259497</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N11">
-        <v>0.670085303259497</v>
+        <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.02849429230548853</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P11">
-        <v>0.02849429230548853</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q11">
-        <v>26.65301379109508</v>
+        <v>3382.815855241357</v>
       </c>
       <c r="R11">
-        <v>26.65301379109508</v>
+        <v>30445.34269717221</v>
       </c>
       <c r="S11">
-        <v>0.002996802807449715</v>
+        <v>0.2187632733025206</v>
       </c>
       <c r="T11">
-        <v>0.002996802807449715</v>
+        <v>0.2187632733025205</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.7755534428927</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H12">
-        <v>39.7755534428927</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I12">
-        <v>0.1051720385023381</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J12">
-        <v>0.1051720385023381</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>10.416639528447</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N12">
-        <v>10.416639528447</v>
+        <v>3.662902</v>
       </c>
       <c r="O12">
-        <v>0.4429507260055973</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P12">
-        <v>0.4429507260055973</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q12">
-        <v>414.3276022590923</v>
+        <v>390.8187263795915</v>
       </c>
       <c r="R12">
-        <v>414.3276022590923</v>
+        <v>3517.368537416324</v>
       </c>
       <c r="S12">
-        <v>0.04658603081009927</v>
+        <v>0.02527385098962816</v>
       </c>
       <c r="T12">
-        <v>0.04658603081009927</v>
+        <v>0.02527385098962815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.7755534428927</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H13">
-        <v>39.7755534428927</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I13">
-        <v>0.1051720385023381</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J13">
-        <v>0.1051720385023381</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.4297498389217</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N13">
-        <v>12.4297498389217</v>
+        <v>37.345108</v>
       </c>
       <c r="O13">
-        <v>0.5285549816889141</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P13">
-        <v>0.5285549816889141</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q13">
-        <v>494.400178999817</v>
+        <v>3984.591328151366</v>
       </c>
       <c r="R13">
-        <v>494.400178999817</v>
+        <v>35861.3219533623</v>
       </c>
       <c r="S13">
-        <v>0.05558920488478906</v>
+        <v>0.2576794833122946</v>
       </c>
       <c r="T13">
-        <v>0.05558920488478906</v>
+        <v>0.2576794833122946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H14">
+        <v>119.60968</v>
+      </c>
+      <c r="I14">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J14">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9159313333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.747794</v>
+      </c>
+      <c r="O14">
+        <v>0.03641350786393945</v>
+      </c>
+      <c r="P14">
+        <v>0.03641350786393944</v>
+      </c>
+      <c r="Q14">
+        <v>36.51808456065778</v>
+      </c>
+      <c r="R14">
+        <v>328.66276104592</v>
+      </c>
+      <c r="S14">
+        <v>0.002361587522078629</v>
+      </c>
+      <c r="T14">
+        <v>0.002361587522078628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H15">
+        <v>119.60968</v>
+      </c>
+      <c r="I15">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J15">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.56834633333333</v>
+      </c>
+      <c r="N15">
+        <v>31.705039</v>
+      </c>
+      <c r="O15">
+        <v>0.4201521973455823</v>
+      </c>
+      <c r="P15">
+        <v>0.4201521973455822</v>
+      </c>
+      <c r="Q15">
+        <v>421.3588410197244</v>
+      </c>
+      <c r="R15">
+        <v>3792.22956917752</v>
+      </c>
+      <c r="S15">
+        <v>0.02724884925486273</v>
+      </c>
+      <c r="T15">
+        <v>0.02724884925486273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H16">
+        <v>119.60968</v>
+      </c>
+      <c r="I16">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J16">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.662902</v>
+      </c>
+      <c r="O16">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P16">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q16">
+        <v>48.67983734348444</v>
+      </c>
+      <c r="R16">
+        <v>438.11853609136</v>
+      </c>
+      <c r="S16">
+        <v>0.003148075750146064</v>
+      </c>
+      <c r="T16">
+        <v>0.003148075750146064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H17">
+        <v>119.60968</v>
+      </c>
+      <c r="I17">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J17">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N17">
+        <v>37.345108</v>
+      </c>
+      <c r="O17">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P17">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q17">
+        <v>496.3151574939378</v>
+      </c>
+      <c r="R17">
+        <v>4466.83641744544</v>
+      </c>
+      <c r="S17">
+        <v>0.03209619828250546</v>
+      </c>
+      <c r="T17">
+        <v>0.03209619828250545</v>
       </c>
     </row>
   </sheetData>
